--- a/simulation_results/raw_data/baselinecarbon_direct_2018.xlsx
+++ b/simulation_results/raw_data/baselinecarbon_direct_2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexdong/Desktop/Optimal-Unilateral-Carbon-Policy/simulation_results/raw_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Tobin\sam\Optimal-Unilateral-Carbon-Policy\simulation_results\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C62BB1B-09DB-BD4A-809D-4D31B52AA98A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37596F1-A31C-475A-BDCC-1BACFEEF2F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3620" yWindow="9560" windowWidth="27640" windowHeight="16940" xr2:uid="{97FAB8B1-D406-A24B-929B-10DF50CCB432}"/>
+    <workbookView xWindow="6828" yWindow="3996" windowWidth="21612" windowHeight="13152" xr2:uid="{97FAB8B1-D406-A24B-929B-10DF50CCB432}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,12 +53,6 @@
     <t>CeHH_old</t>
   </si>
   <si>
-    <t>CeHF</t>
-  </si>
-  <si>
-    <t>CeFH</t>
-  </si>
-  <si>
     <t>CeFF_old</t>
   </si>
   <si>
@@ -83,18 +77,6 @@
     <t>regionbase</t>
   </si>
   <si>
-    <t>Cec</t>
-  </si>
-  <si>
-    <t>Cecstar</t>
-  </si>
-  <si>
-    <t>CeHH</t>
-  </si>
-  <si>
-    <t>CeFF</t>
-  </si>
-  <si>
     <t>US as Home</t>
   </si>
   <si>
@@ -117,6 +99,24 @@
   </si>
   <si>
     <t>World total Cec</t>
+  </si>
+  <si>
+    <t>Cex</t>
+  </si>
+  <si>
+    <t>Cem</t>
+  </si>
+  <si>
+    <t>Ced</t>
+  </si>
+  <si>
+    <t>Cedstar</t>
+  </si>
+  <si>
+    <t>Cey</t>
+  </si>
+  <si>
+    <t>Ceystar</t>
   </si>
 </sst>
 </file>
@@ -470,15 +470,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E80792A-3A76-EC43-887C-CF83B5F3489D}">
   <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -496,51 +496,51 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>19</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -611,9 +611,9 @@
         <v>4.6906999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -684,9 +684,9 @@
         <v>4.6906999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -757,9 +757,9 @@
         <v>4.6906999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -812,9 +812,9 @@
         <v>4.6906999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -885,9 +885,9 @@
         <v>4.6906999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -964,9 +964,9 @@
         <v>4.6906999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>7</v>
